--- a/Facebookanalytics.xlsx
+++ b/Facebookanalytics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Mannu\greenlife-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E9A50-ABA2-4653-A770-22370D0F8B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560FA4AA-222F-42FF-BCE7-C57A19EB5215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{53F27E6A-A195-4E63-8862-4CAF56DB3F54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{53F27E6A-A195-4E63-8862-4CAF56DB3F54}"/>
   </bookViews>
   <sheets>
     <sheet name="Likes Demographics" sheetId="1" r:id="rId1"/>
@@ -2081,7 +2081,7 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,7 +3863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116B2EB6-0006-4B73-9738-75A215AF3D6D}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -5237,10 +5237,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AB106D-7C3C-4760-A313-AAB8AF8342E0}">
-  <dimension ref="A1:D1600"/>
+  <dimension ref="A1:E1600"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6594,7 +6594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>44340</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>44341</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
         <v>44342</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>44343</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>44344</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>44345</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>44346</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>44347</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>44348</v>
       </c>
@@ -6720,31 +6720,44 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B106"/>
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="9">
+        <f>SUM(B2:B105)</f>
+        <v>477031</v>
+      </c>
+      <c r="C106" s="9">
+        <v>940</v>
+      </c>
+      <c r="D106" s="9">
+        <f t="shared" ref="C106:D106" si="0">SUM(D2:D105)</f>
+        <v>35183</v>
+      </c>
+      <c r="E106">
+        <f>D106/B106</f>
+        <v>7.3754116608773859E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107"/>
       <c r="C107"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109"/>
       <c r="C109"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B110"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111"/>
       <c r="C111"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B112"/>
       <c r="C112"/>
     </row>
@@ -13638,7 +13651,7 @@
   <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14565,7 +14578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C55416-4400-40F2-928D-EEE0806BB46C}">
   <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
